--- a/workbook/Book1.xlsx
+++ b/workbook/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17415" windowHeight="6570"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16560" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>S.no</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Dinesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Naveen@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,6 +494,12 @@
       <c r="E3">
         <v>9965874123</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -546,6 +555,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
